--- a/JEpisodic_MTT_HPCLesion_100Trials_RawData.xlsx
+++ b/JEpisodic_MTT_HPCLesion_100Trials_RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DEGRADE 124</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>PILFER 4</t>
+  </si>
+  <si>
+    <t>SEM: .1678</t>
+  </si>
+  <si>
+    <t>SEM: .1746</t>
+  </si>
+  <si>
+    <t>SEM: .1520</t>
+  </si>
+  <si>
+    <t>SEM: .1826</t>
+  </si>
+  <si>
+    <t>SEM: .1509</t>
+  </si>
+  <si>
+    <t>SEM: .1473</t>
   </si>
 </sst>
 </file>
@@ -365,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -377,7 +395,7 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -389,16 +407,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2427,8 +2445,29 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
